--- a/webScrapping/espn_scrapper/IPL/Delhi Capitals/Axar Patel.xlsx
+++ b/webScrapping/espn_scrapper/IPL/Delhi Capitals/Axar Patel.xlsx
@@ -474,13 +474,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> Oct 14 2020</v>
+        <v xml:space="preserve"> Oct 9 2020</v>
       </c>
       <c r="B3" t="str">
-        <v xml:space="preserve"> Dubai (DSC)</v>
+        <v xml:space="preserve"> Sharjah</v>
       </c>
       <c r="C3" t="str">
-        <v>Capitals won by 13 runs</v>
+        <v>Capitals won by 46 runs</v>
       </c>
       <c r="D3" t="str">
         <v>Delhi Capitals</v>
@@ -492,19 +492,19 @@
         <v>Axar Patel</v>
       </c>
       <c r="G3" t="str">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H3" t="str">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I3" t="str">
+        <v>2</v>
+      </c>
+      <c r="J3" t="str">
         <v>1</v>
       </c>
-      <c r="J3" t="str">
-        <v>0</v>
-      </c>
       <c r="K3" t="str">
-        <v>175.00</v>
+        <v>212.50</v>
       </c>
     </row>
     <row r="4">
@@ -544,13 +544,13 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v xml:space="preserve"> Oct 9 2020</v>
+        <v xml:space="preserve"> Oct 14 2020</v>
       </c>
       <c r="B5" t="str">
-        <v xml:space="preserve"> Sharjah</v>
+        <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C5" t="str">
-        <v>Capitals won by 46 runs</v>
+        <v>Capitals won by 13 runs</v>
       </c>
       <c r="D5" t="str">
         <v>Delhi Capitals</v>
@@ -562,19 +562,19 @@
         <v>Axar Patel</v>
       </c>
       <c r="G5" t="str">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H5" t="str">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I5" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="str">
-        <v>212.50</v>
+        <v>175.00</v>
       </c>
     </row>
   </sheetData>
